--- a/PythonResources/Data/Consumption/Sympheny/post_1690_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1690_coo.xlsx
@@ -359,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.8526989791163441</v>
+        <v>0.852698979116344</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -487,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.890798800284396</v>
+        <v>4.890798800284395</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>24.12915406216975</v>
+        <v>24.12915406216974</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16.89668835587734</v>
+        <v>16.89668835587733</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.7071921391313727</v>
+        <v>0.7071921391313726</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.6191096384617053</v>
+        <v>0.6191096384617052</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.200819895537759</v>
+        <v>0.2008198955377589</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.6919172765963434</v>
+        <v>0.6919172765963433</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>3.967068193527703</v>
+        <v>3.967068193527702</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1.805039180667159</v>
+        <v>1.805039180667158</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.8470456387805666</v>
+        <v>0.8470456387805665</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.6338716266790774</v>
+        <v>0.6338716266790773</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>6.34419669521374</v>
+        <v>6.344196695213739</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>5.496488715885799</v>
+        <v>5.496488715885798</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>4.153813059362712</v>
+        <v>4.153813059362711</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2.528634505832407</v>
+        <v>2.528634505832406</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1.073718502922798</v>
+        <v>1.073718502922797</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.9343808083016476</v>
+        <v>0.9343808083016474</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.7678900819485239</v>
+        <v>0.7678900819485238</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>0.6935086523362745</v>
+        <v>0.6935086523362743</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>0.3168771991318064</v>
+        <v>0.3168771991318063</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>0.3216220192477336</v>
+        <v>0.3216220192477335</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>0.3244149862461762</v>
+        <v>0.3244149862461761</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>0.6492695790503444</v>
+        <v>0.6492695790503443</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>0.3137442697285166</v>
+        <v>0.3137442697285165</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>4.258820412515072</v>
+        <v>4.258820412515071</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>3.422659432110388</v>
+        <v>3.422659432110387</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>3.615558789757285</v>
+        <v>3.615558789757284</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>2.409885051677217</v>
+        <v>2.409885051677216</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>4.967583412413669</v>
+        <v>4.967583412413668</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>7.138682973920782</v>
+        <v>7.138682973920781</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>6.783539489270964</v>
+        <v>6.783539489270963</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>5.019339757841263</v>
+        <v>5.019339757841262</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>0.7810431101636451</v>
+        <v>0.781043110163645</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>0.4521118992116976</v>
+        <v>0.4521118992116975</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>8.587860645893402</v>
+        <v>8.5878606458934</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9.20442349702914</v>
+        <v>9.204423497029138</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>3.065229993359011</v>
+        <v>3.06522999335901</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>1.104531991927652</v>
+        <v>1.104531991927651</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>33.35763869147299</v>
+        <v>33.35763869147298</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>0.2850133435243903</v>
+        <v>0.2850133435243902</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>0.2517110952592243</v>
+        <v>0.2517110952592242</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>4.278895778663374</v>
+        <v>4.278895778663373</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>0.3980754611033187</v>
+        <v>0.3980754611033186</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>2.375900534034047</v>
+        <v>2.375900534034046</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>0.5994973245544881</v>
+        <v>0.599497324554488</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>0.2149462126722745</v>
+        <v>0.2149462126722744</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>0.1916453066724656</v>
+        <v>0.1916453066724655</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>1.798626786341249</v>
+        <v>1.798626786341248</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>0.2434992447559334</v>
+        <v>0.2434992447559333</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>0.09562878684415831</v>
+        <v>0.0956287868441582</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>0.8015287757660731</v>
+        <v>0.801528775766073</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>0.0531232287519101</v>
+        <v>0.05312322875191</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>0.2094101007519617</v>
+        <v>0.2094101007519616</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>0.199021611644533</v>
+        <v>0.1990216116445329</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>817</v>
       </c>
       <c r="B817">
-        <v>0.046519459037754</v>
+        <v>0.0465194590377539</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>0.06780462243365019</v>
+        <v>0.0678046224336501</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>0.4315822729534703</v>
+        <v>0.4315822729534702</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>0.497341552608303</v>
+        <v>0.4973415526083029</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>0.5905674500064769</v>
+        <v>0.5905674500064768</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>0.3095387003237263</v>
+        <v>0.3095387003237262</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>0.7661580321100353</v>
+        <v>0.7661580321100352</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>0.7578963595301721</v>
+        <v>0.757896359530172</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>0.4269048591764353</v>
+        <v>0.4269048591764352</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>0.4241734370961115</v>
+        <v>0.4241734370961114</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>0.3055558649083186</v>
+        <v>0.3055558649083185</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>1.838680805195095</v>
+        <v>1.838680805195094</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>0.2658544105139822</v>
+        <v>0.2658544105139821</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>0.4619239175860794</v>
+        <v>0.4619239175860793</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>0.2583890119461617</v>
+        <v>0.2583890119461616</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>0.175981245798094</v>
+        <v>0.1759812457980939</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>0.6807629928648926</v>
+        <v>0.6807629928648925</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>0.22848580158739</v>
+        <v>0.2284858015873899</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>1224</v>
       </c>
       <c r="B1224">
-        <v>0.8843154827671299</v>
+        <v>0.8843154827671298</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>0.707083702847068</v>
+        <v>0.7070837028470679</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>0.4577886852305678</v>
+        <v>0.4577886852305677</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>4.041654772867015</v>
+        <v>4.041654772867014</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>0.5300922411787083</v>
+        <v>0.5300922411787082</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>0.8414274669694287</v>
+        <v>0.8414274669694286</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>0.6219788039302</v>
+        <v>0.6219788039301999</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>0.6861906685009007</v>
+        <v>0.6861906685009006</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>0.4841680094204755</v>
+        <v>0.4841680094204754</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>0.791825193675996</v>
+        <v>0.7918251936759959</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>1311</v>
       </c>
       <c r="B1311">
-        <v>7.580722021533688</v>
+        <v>7.580722021533687</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>25.0756855957343</v>
+        <v>25.07568559573429</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>0.6125389857749181</v>
+        <v>0.6125389857749179</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>18.18558547680607</v>
+        <v>18.18558547680606</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>18.65338546871731</v>
+        <v>18.6533854687173</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11135,7 +11135,7 @@
         <v>1349</v>
       </c>
       <c r="B1349">
-        <v>0.8372512046685046</v>
+        <v>0.8372512046685044</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>5.924724117577757</v>
+        <v>5.924724117577756</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>0.7335714633212804</v>
+        <v>0.7335714633212803</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>13.68187490438558</v>
+        <v>13.68187490438557</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>3.494227379751488</v>
+        <v>3.494227379751487</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>4.806951176123386</v>
+        <v>4.806951176123385</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>0.2801070412661607</v>
+        <v>0.2801070412661606</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>0.8987609542627476</v>
+        <v>0.8987609542627475</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>0.2472309182912083</v>
+        <v>0.2472309182912082</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>1.769346058868594</v>
+        <v>1.769346058868593</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>7.960043866873067</v>
+        <v>7.960043866873066</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1500</v>
       </c>
       <c r="B1500">
-        <v>4.082157190410013</v>
+        <v>4.082157190410012</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12415,7 +12415,7 @@
         <v>1509</v>
       </c>
       <c r="B1509">
-        <v>1.622016317023149</v>
+        <v>1.622016317023148</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1523</v>
       </c>
       <c r="B1523">
-        <v>7.652758882836647</v>
+        <v>7.652758882836646</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12535,7 +12535,7 @@
         <v>1524</v>
       </c>
       <c r="B1524">
-        <v>4.410455367918452</v>
+        <v>4.410455367918451</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>7.289057723857917</v>
+        <v>7.289057723857916</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>1536</v>
       </c>
       <c r="B1536">
-        <v>0.5531657240525161</v>
+        <v>0.553165724052516</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>4.949207858289603</v>
+        <v>4.949207858289602</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>5.006884238698156</v>
+        <v>5.006884238698155</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>8.231955176543064</v>
+        <v>8.231955176543062</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12767,7 +12767,7 @@
         <v>1553</v>
       </c>
       <c r="B1553">
-        <v>12.53420871698775</v>
+        <v>12.53420871698774</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>8.227383268339947</v>
+        <v>8.227383268339945</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>0.7375982593924872</v>
+        <v>0.7375982593924871</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12911,7 +12911,7 @@
         <v>1571</v>
       </c>
       <c r="B1571">
-        <v>20.79892923565315</v>
+        <v>20.79892923565314</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>8.849543776314118</v>
+        <v>8.849543776314116</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>0.8998541092369544</v>
+        <v>0.8998541092369543</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>0.5135835495709148</v>
+        <v>0.5135835495709147</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>0.2029103712565304</v>
+        <v>0.2029103712565303</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>0.9511474024234632</v>
+        <v>0.951147402423463</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13583,7 +13583,7 @@
         <v>1655</v>
       </c>
       <c r="B1655">
-        <v>0.5505251539941773</v>
+        <v>0.5505251539941772</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>7.995534769654957</v>
+        <v>7.995534769654956</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>2.835298179266866</v>
+        <v>2.835298179266865</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13767,7 +13767,7 @@
         <v>1678</v>
       </c>
       <c r="B1678">
-        <v>0.7138712281024647</v>
+        <v>0.7138712281024646</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>0.5257078984403346</v>
+        <v>0.5257078984403345</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>7.576443184369233</v>
+        <v>7.576443184369232</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>0.3680005111158915</v>
+        <v>0.3680005111158914</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>24.82598907079483</v>
+        <v>24.82598907079482</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>0.6722346256398475</v>
+        <v>0.6722346256398474</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>4.612732998802512</v>
+        <v>4.612732998802511</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>4.197392722811654</v>
+        <v>4.197392722811653</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>6.13274594081958</v>
+        <v>6.132745940819579</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>0.7171213859212191</v>
+        <v>0.717121385921219</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14575,7 +14575,7 @@
         <v>1779</v>
       </c>
       <c r="B1779">
-        <v>0.3475998361146752</v>
+        <v>0.3475998361146751</v>
       </c>
     </row>
     <row r="1780" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>0.2980122163731756</v>
+        <v>0.2980122163731755</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>0.102457048973929</v>
+        <v>0.1024570489739289</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>0.9391725197837606</v>
+        <v>0.9391725197837604</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>2.316682599962136</v>
+        <v>2.316682599962135</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14735,7 +14735,7 @@
         <v>1799</v>
       </c>
       <c r="B1799">
-        <v>0.6158536192221779</v>
+        <v>0.6158536192221777</v>
       </c>
     </row>
     <row r="1800" spans="1:2">
@@ -14759,7 +14759,7 @@
         <v>1802</v>
       </c>
       <c r="B1802">
-        <v>0.3986147118144556</v>
+        <v>0.3986147118144555</v>
       </c>
     </row>
     <row r="1803" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>6.700952070576196</v>
+        <v>6.700952070576195</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>0.3642873010560522</v>
+        <v>0.3642873010560521</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>6.416233556516699</v>
+        <v>6.416233556516698</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15071,7 +15071,7 @@
         <v>1841</v>
       </c>
       <c r="B1841">
-        <v>22.01713762205677</v>
+        <v>22.01713762205676</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>8.289631556951617</v>
+        <v>8.289631556951615</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>8.924188969861161</v>
+        <v>8.924188969861159</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15311,7 +15311,7 @@
         <v>1871</v>
       </c>
       <c r="B1871">
-        <v>5.055328881388876</v>
+        <v>5.055328881388875</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>0.6470803383915441</v>
+        <v>0.647080338391544</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>0.4971715714058794</v>
+        <v>0.4971715714058793</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>0.7727140312448897</v>
+        <v>0.7727140312448896</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>3.677777771265089</v>
+        <v>3.677777771265088</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>6.272159833910782</v>
+        <v>6.272159833910781</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>7.188768814428005</v>
+        <v>7.188768814428004</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>36.04803082638414</v>
+        <v>36.04803082638413</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -16231,7 +16231,7 @@
         <v>1986</v>
       </c>
       <c r="B1986">
-        <v>0.0890297062666208</v>
+        <v>0.0890297062666207</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>0.5747093761045116</v>
+        <v>0.5747093761045114</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>0.4598694896050634</v>
+        <v>0.4598694896050633</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16623,7 +16623,7 @@
         <v>2035</v>
       </c>
       <c r="B2035">
-        <v>0.523483489256895</v>
+        <v>0.5234834892568949</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16671,7 +16671,7 @@
         <v>2041</v>
       </c>
       <c r="B2041">
-        <v>0.4439234943914996</v>
+        <v>0.4439234943914995</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>0.4496618253284887</v>
+        <v>0.4496618253284886</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>0.3626461032395487</v>
+        <v>0.3626461032395486</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>0.4279950834402555</v>
+        <v>0.4279950834402554</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>0.3686130295866937</v>
+        <v>0.3686130295866936</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17447,7 +17447,7 @@
         <v>2138</v>
       </c>
       <c r="B2138">
-        <v>0.7085842265650141</v>
+        <v>0.708584226565014</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17671,7 +17671,7 @@
         <v>2166</v>
       </c>
       <c r="B2166">
-        <v>0.3558790929568582</v>
+        <v>0.3558790929568581</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -17751,7 +17751,7 @@
         <v>2176</v>
       </c>
       <c r="B2176">
-        <v>14.690390962627</v>
+        <v>14.69039096262699</v>
       </c>
     </row>
     <row r="2177" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>0.4847600129185714</v>
+        <v>0.4847600129185713</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>0.753271698540096</v>
+        <v>0.7532716985400959</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>15.85191941015351</v>
+        <v>15.8519194101535</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>39.71434952003757</v>
+        <v>39.71434952003756</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18159,7 +18159,7 @@
         <v>2227</v>
       </c>
       <c r="B2227">
-        <v>56.43698298605393</v>
+        <v>56.43698298605392</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -18207,7 +18207,7 @@
         <v>2233</v>
       </c>
       <c r="B2233">
-        <v>7.89436664710906</v>
+        <v>7.894366647109059</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>29.30464206940978</v>
+        <v>29.30464206940977</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>38.13967882931016</v>
+        <v>38.13967882931015</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18551,7 +18551,7 @@
         <v>2276</v>
       </c>
       <c r="B2276">
-        <v>30.37622701517112</v>
+        <v>30.37622701517111</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>1.562150695955796</v>
+        <v>1.562150695955795</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>30.69596751835065</v>
+        <v>30.69596751835064</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>4.810849020937582</v>
+        <v>4.810849020937581</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19183,7 +19183,7 @@
         <v>2355</v>
       </c>
       <c r="B2355">
-        <v>0.762620664673393</v>
+        <v>0.7626206646733928</v>
       </c>
     </row>
     <row r="2356" spans="1:2">
@@ -19199,7 +19199,7 @@
         <v>2357</v>
       </c>
       <c r="B2357">
-        <v>0.6611360254057422</v>
+        <v>0.6611360254057421</v>
       </c>
     </row>
     <row r="2358" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>0.5852394185236137</v>
+        <v>0.5852394185236136</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>0.2726627438131239</v>
+        <v>0.2726627438131238</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>2.484225451344054</v>
+        <v>2.484225451344053</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19535,7 +19535,7 @@
         <v>2399</v>
       </c>
       <c r="B2399">
-        <v>0.9112516419304942</v>
+        <v>0.911251641930494</v>
       </c>
     </row>
     <row r="2400" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>0.4246745885722224</v>
+        <v>0.4246745885722223</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>0.4757392863485752</v>
+        <v>0.4757392863485751</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>7.12042464821218</v>
+        <v>7.120424648212179</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19831,7 +19831,7 @@
         <v>2436</v>
       </c>
       <c r="B2436">
-        <v>7.633240351661802</v>
+        <v>7.633240351661801</v>
       </c>
     </row>
     <row r="2437" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>5.322638975751889</v>
+        <v>5.322638975751888</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>31.21470325678123</v>
+        <v>31.21470325678122</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20231,7 +20231,7 @@
         <v>2486</v>
       </c>
       <c r="B2486">
-        <v>9.234961499257652</v>
+        <v>9.234961499257651</v>
       </c>
     </row>
     <row r="2487" spans="1:2">
@@ -20239,7 +20239,7 @@
         <v>2487</v>
       </c>
       <c r="B2487">
-        <v>14.91860538043259</v>
+        <v>14.91860538043258</v>
       </c>
     </row>
     <row r="2488" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>6.428513233036609</v>
+        <v>6.428513233036608</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20519,7 +20519,7 @@
         <v>2522</v>
       </c>
       <c r="B2522">
-        <v>0.8479746739731231</v>
+        <v>0.847974673973123</v>
       </c>
     </row>
     <row r="2523" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>0.7082765019744196</v>
+        <v>0.7082765019744195</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>2.584971551594278</v>
+        <v>2.584971551594277</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20607,7 +20607,7 @@
         <v>2533</v>
       </c>
       <c r="B2533">
-        <v>16.83945158202678</v>
+        <v>16.83945158202677</v>
       </c>
     </row>
     <row r="2534" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>84.56916505819513</v>
+        <v>84.56916505819511</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -20663,7 +20663,7 @@
         <v>2540</v>
       </c>
       <c r="B2540">
-        <v>43.05184250831297</v>
+        <v>43.05184250831296</v>
       </c>
     </row>
     <row r="2541" spans="1:2">
@@ -20719,7 +20719,7 @@
         <v>2547</v>
       </c>
       <c r="B2547">
-        <v>2.86612046040288</v>
+        <v>2.866120460402879</v>
       </c>
     </row>
     <row r="2548" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>2.291038884079268</v>
+        <v>2.291038884079267</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>5.831175842037055</v>
+        <v>5.831175842037054</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>0.982840104544301</v>
+        <v>0.9828401045443008</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>0.4640750590098537</v>
+        <v>0.4640750590098536</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>0.3569986243245446</v>
+        <v>0.3569986243245445</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>28.73810644457353</v>
+        <v>28.73810644457352</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>3.508822317476823</v>
+        <v>3.508822317476822</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>5.033729545839535</v>
+        <v>5.033729545839534</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21423,7 +21423,7 @@
         <v>2635</v>
       </c>
       <c r="B2635">
-        <v>54.63811295075059</v>
+        <v>54.63811295075058</v>
       </c>
     </row>
     <row r="2636" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>4.065598676725647</v>
+        <v>4.065598676725646</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>5.116697956884562</v>
+        <v>5.116697956884561</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>0.7994655556538972</v>
+        <v>0.7994655556538971</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21695,7 +21695,7 @@
         <v>2669</v>
       </c>
       <c r="B2669">
-        <v>0.4952285104195547</v>
+        <v>0.4952285104195546</v>
       </c>
     </row>
     <row r="2670" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>0.8816133677906723</v>
+        <v>0.8816133677906722</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21727,7 +21727,7 @@
         <v>2673</v>
       </c>
       <c r="B2673">
-        <v>5.393913852354328</v>
+        <v>5.393913852354327</v>
       </c>
     </row>
     <row r="2674" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>0.8533114975871462</v>
+        <v>0.8533114975871461</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>0.7792524461174243</v>
+        <v>0.7792524461174242</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>0.4041508237347684</v>
+        <v>0.4041508237347683</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>0.897491956665344</v>
+        <v>0.8974919566653439</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>0.5857522928412711</v>
+        <v>0.5857522928412709</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>26.25321572197172</v>
+        <v>26.25321572197171</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22263,7 +22263,7 @@
         <v>2740</v>
       </c>
       <c r="B2740">
-        <v>0.6922074169246181</v>
+        <v>0.692207416924618</v>
       </c>
     </row>
     <row r="2741" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>14.40227282451903</v>
+        <v>14.40227282451902</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22351,7 +22351,7 @@
         <v>2751</v>
       </c>
       <c r="B2751">
-        <v>12.08961995133849</v>
+        <v>12.08961995133848</v>
       </c>
     </row>
     <row r="2752" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>36.2059961162226</v>
+        <v>36.20599611622259</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22399,7 +22399,7 @@
         <v>2757</v>
       </c>
       <c r="B2757">
-        <v>28.91831582624639</v>
+        <v>28.91831582624638</v>
       </c>
     </row>
     <row r="2758" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>25.54861433082211</v>
+        <v>25.5486143308221</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22495,7 +22495,7 @@
         <v>2769</v>
       </c>
       <c r="B2769">
-        <v>37.54884761536889</v>
+        <v>37.54884761536888</v>
       </c>
     </row>
     <row r="2770" spans="1:2">
@@ -22759,7 +22759,7 @@
         <v>2802</v>
       </c>
       <c r="B2802">
-        <v>45.00076491541091</v>
+        <v>45.0007649154109</v>
       </c>
     </row>
     <row r="2803" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>0.9805775961258354</v>
+        <v>0.9805775961258352</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>45.90488906968116</v>
+        <v>45.90488906968115</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>35.5744280279074</v>
+        <v>35.57442802790739</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>24.8661691101953</v>
+        <v>24.86616911019529</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>48.33796483264765</v>
+        <v>48.33796483264764</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>82.69409655283984</v>
+        <v>82.69409655283982</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23783,7 +23783,7 @@
         <v>2930</v>
       </c>
       <c r="B2930">
-        <v>16.6163366002939</v>
+        <v>16.61633660029389</v>
       </c>
     </row>
     <row r="2931" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>7.222999511743651</v>
+        <v>7.22299951174365</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>5.714885253896234</v>
+        <v>5.714885253896233</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>19.23064749356856</v>
+        <v>19.23064749356855</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>25.70124572775694</v>
+        <v>25.70124572775693</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24383,7 +24383,7 @@
         <v>3005</v>
       </c>
       <c r="B3005">
-        <v>2.288999109650185</v>
+        <v>2.288999109650184</v>
       </c>
     </row>
     <row r="3006" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>39.79318562943747</v>
+        <v>39.79318562943746</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>73.33663135942174</v>
+        <v>73.33663135942173</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24639,7 +24639,7 @@
         <v>3037</v>
       </c>
       <c r="B3037">
-        <v>21.43896707698567</v>
+        <v>21.43896707698566</v>
       </c>
     </row>
     <row r="3038" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>3046</v>
       </c>
       <c r="B3046">
-        <v>51.22442149242324</v>
+        <v>51.22442149242323</v>
       </c>
     </row>
     <row r="3047" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>15.32946166953193</v>
+        <v>15.32946166953192</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>52.12151194176562</v>
+        <v>52.12151194176561</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24807,7 +24807,7 @@
         <v>3058</v>
       </c>
       <c r="B3058">
-        <v>52.9010809046048</v>
+        <v>52.90108090460479</v>
       </c>
     </row>
     <row r="3059" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>57.58083924994916</v>
+        <v>57.58083924994915</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>2.167685283906708</v>
+        <v>2.167685283906707</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>41.04665046179204</v>
+        <v>41.04665046179203</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>9.936866636851574</v>
+        <v>9.936866636851573</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>8.868798543554167</v>
+        <v>8.868798543554165</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25175,7 +25175,7 @@
         <v>3104</v>
       </c>
       <c r="B3104">
-        <v>34.70283475892856</v>
+        <v>34.70283475892855</v>
       </c>
     </row>
     <row r="3105" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>62.63016017504548</v>
+        <v>62.63016017504547</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25327,7 +25327,7 @@
         <v>3123</v>
       </c>
       <c r="B3123">
-        <v>7.403062357897181</v>
+        <v>7.40306235789718</v>
       </c>
     </row>
     <row r="3124" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>36.07851021440492</v>
+        <v>36.07851021440491</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25431,7 +25431,7 @@
         <v>3136</v>
       </c>
       <c r="B3136">
-        <v>61.88136367126574</v>
+        <v>61.88136367126573</v>
       </c>
     </row>
     <row r="3137" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>64.68781193748679</v>
+        <v>64.68781193748677</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>11.36412259513233</v>
+        <v>11.36412259513232</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>7.061722519168312</v>
+        <v>7.061722519168311</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>52.6000969478996</v>
+        <v>52.60009694789959</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25639,7 +25639,7 @@
         <v>3162</v>
       </c>
       <c r="B3162">
-        <v>131.3468196810098</v>
+        <v>131.3468196810097</v>
       </c>
     </row>
     <row r="3163" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>7.005277037122137</v>
+        <v>7.005277037122136</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>46.36120067687688</v>
+        <v>46.36120067687687</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -26063,7 +26063,7 @@
         <v>3215</v>
       </c>
       <c r="B3215">
-        <v>13.42757716413913</v>
+        <v>13.42757716413912</v>
       </c>
     </row>
     <row r="3216" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>2.706639993294535</v>
+        <v>2.706639993294534</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26127,7 +26127,7 @@
         <v>3223</v>
       </c>
       <c r="B3223">
-        <v>5.879327413689114</v>
+        <v>5.879327413689113</v>
       </c>
     </row>
     <row r="3224" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>21.69669374838445</v>
+        <v>21.69669374838444</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>51.77480890302925</v>
+        <v>51.77480890302924</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26207,7 +26207,7 @@
         <v>3233</v>
       </c>
       <c r="B3233">
-        <v>58.29182958974158</v>
+        <v>58.29182958974157</v>
       </c>
     </row>
     <row r="3234" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>43.85163337281978</v>
+        <v>43.85163337281977</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>51.56350468415442</v>
+        <v>51.56350468415441</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>80.88584824429934</v>
+        <v>80.88584824429932</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26447,7 +26447,7 @@
         <v>3263</v>
       </c>
       <c r="B3263">
-        <v>44.93453086067345</v>
+        <v>44.93453086067344</v>
       </c>
     </row>
     <row r="3264" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>21.81351186439486</v>
+        <v>21.81351186439485</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>38.27478457813304</v>
+        <v>38.27478457813303</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26583,7 +26583,7 @@
         <v>3280</v>
       </c>
       <c r="B3280">
-        <v>47.81307460240518</v>
+        <v>47.81307460240517</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>46.76886249165481</v>
+        <v>46.7688624916548</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26631,7 +26631,7 @@
         <v>3286</v>
       </c>
       <c r="B3286">
-        <v>56.92084327088381</v>
+        <v>56.9208432708838</v>
       </c>
     </row>
     <row r="3287" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>44.71033151609752</v>
+        <v>44.71033151609751</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>23.97022163790371</v>
+        <v>23.9702216379037</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>83.66767854327283</v>
+        <v>83.66767854327281</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>36.92460630302022</v>
+        <v>36.92460630302021</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>37.74754977958128</v>
+        <v>37.74754977958127</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>1.965017868541228</v>
+        <v>1.965017868541227</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27375,7 +27375,7 @@
         <v>3379</v>
       </c>
       <c r="B3379">
-        <v>48.8273934672121</v>
+        <v>48.82739346721209</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>29.11183063307448</v>
+        <v>29.11183063307447</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>0.7355350392803114</v>
+        <v>0.7355350392803113</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>34.86841989577222</v>
+        <v>34.86841989577221</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27647,7 +27647,7 @@
         <v>3413</v>
       </c>
       <c r="B3413">
-        <v>1.770787968378808</v>
+        <v>1.770787968378807</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>41.03903061478685</v>
+        <v>41.03903061478684</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>51.66549340560857</v>
+        <v>51.66549340560856</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>67.51536131849144</v>
+        <v>67.51536131849143</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27783,7 +27783,7 @@
         <v>3430</v>
       </c>
       <c r="B3430">
-        <v>39.79318562943747</v>
+        <v>39.79318562943746</v>
       </c>
     </row>
     <row r="3431" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>28.7508550347553</v>
+        <v>28.75085503475529</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27815,7 +27815,7 @@
         <v>3434</v>
       </c>
       <c r="B3434">
-        <v>9.469242487563532</v>
+        <v>9.46924248756353</v>
       </c>
     </row>
     <row r="3435" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>85.25465821762401</v>
+        <v>85.254658217624</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -27983,7 +27983,7 @@
         <v>3455</v>
       </c>
       <c r="B3455">
-        <v>61.31104743003076</v>
+        <v>61.31104743003075</v>
       </c>
     </row>
     <row r="3456" spans="1:2">
@@ -28023,7 +28023,7 @@
         <v>3460</v>
       </c>
       <c r="B3460">
-        <v>29.60046797583454</v>
+        <v>29.60046797583453</v>
       </c>
     </row>
     <row r="3461" spans="1:2">
@@ -28039,7 +28039,7 @@
         <v>3462</v>
       </c>
       <c r="B3462">
-        <v>35.34759104398352</v>
+        <v>35.34759104398351</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -28063,7 +28063,7 @@
         <v>3465</v>
       </c>
       <c r="B3465">
-        <v>51.18632225739727</v>
+        <v>51.18632225739726</v>
       </c>
     </row>
     <row r="3466" spans="1:2">
@@ -28079,7 +28079,7 @@
         <v>3467</v>
       </c>
       <c r="B3467">
-        <v>53.82572003158134</v>
+        <v>53.82572003158133</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -28159,7 +28159,7 @@
         <v>3477</v>
       </c>
       <c r="B3477">
-        <v>67.5437892092416</v>
+        <v>67.54378920924158</v>
       </c>
     </row>
     <row r="3478" spans="1:2">
@@ -28199,7 +28199,7 @@
         <v>3482</v>
       </c>
       <c r="B3482">
-        <v>25.00197822951097</v>
+        <v>25.00197822951096</v>
       </c>
     </row>
     <row r="3483" spans="1:2">
@@ -28207,7 +28207,7 @@
         <v>3483</v>
       </c>
       <c r="B3483">
-        <v>21.66469039096263</v>
+        <v>21.66469039096262</v>
       </c>
     </row>
     <row r="3484" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>70.89593574945006</v>
+        <v>70.89593574945005</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>77.51787586800316</v>
+        <v>77.51787586800315</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>47.29609729020657</v>
+        <v>47.29609729020656</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>81.60650992836759</v>
+        <v>81.60650992836757</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28639,7 +28639,7 @@
         <v>3537</v>
       </c>
       <c r="B3537">
-        <v>39.21993867781588</v>
+        <v>39.21993867781587</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>68.30753233599306</v>
+        <v>68.30753233599305</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28751,7 +28751,7 @@
         <v>3551</v>
       </c>
       <c r="B3551">
-        <v>47.85908675547501</v>
+        <v>47.859086755475</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>26.8965652660411</v>
+        <v>26.89656526604109</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>52.03476291432186</v>
+        <v>52.03476291432185</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28879,7 +28879,7 @@
         <v>3567</v>
       </c>
       <c r="B3567">
-        <v>77.17146590030545</v>
+        <v>77.17146590030544</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -28927,7 +28927,7 @@
         <v>3573</v>
       </c>
       <c r="B3573">
-        <v>84.45721192142649</v>
+        <v>84.45721192142648</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>66.51657521873358</v>
+        <v>66.51657521873356</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>48.14717558647912</v>
+        <v>48.14717558647911</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>98.00852367808844</v>
+        <v>98.00852367808842</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>75.49187577773728</v>
+        <v>75.49187577773726</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>82.09066328423613</v>
+        <v>82.09066328423611</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>72.16229570750573</v>
+        <v>72.16229570750572</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>75.12289934006265</v>
+        <v>75.12289934006263</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>75.04933850935865</v>
+        <v>75.04933850935863</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>73.43393094425731</v>
+        <v>73.4339309442573</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>70.82501255809402</v>
+        <v>70.825012558094</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>22.57291753977414</v>
+        <v>22.57291753977413</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>43.37275529564714</v>
+        <v>43.37275529564713</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>53.48165463219292</v>
+        <v>53.48165463219291</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29679,7 +29679,7 @@
         <v>3667</v>
       </c>
       <c r="B3667">
-        <v>74.41747735000479</v>
+        <v>74.41747735000477</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>3.473565871525863</v>
+        <v>3.473565871525862</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29783,7 +29783,7 @@
         <v>3680</v>
       </c>
       <c r="B3680">
-        <v>24.19732238576238</v>
+        <v>24.19732238576237</v>
       </c>
     </row>
     <row r="3681" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>47.75739110505953</v>
+        <v>47.75739110505952</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>9.071955387554212</v>
+        <v>9.07195538755421</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>5.230233677261967</v>
+        <v>5.230233677261966</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>37.67105823849067</v>
+        <v>37.67105823849066</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>54.14135754021961</v>
+        <v>54.1413575402196</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>62.69170509316436</v>
+        <v>62.69170509316435</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>5.405988379147176</v>
+        <v>5.405988379147175</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>97.92646378726326</v>
+        <v>97.92646378726324</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>59.49693770071704</v>
+        <v>59.49693770071703</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>95.74660140170018</v>
+        <v>95.74660140170016</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30455,7 +30455,7 @@
         <v>3764</v>
       </c>
       <c r="B3764">
-        <v>100.1259619324167</v>
+        <v>100.1259619324166</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -30519,7 +30519,7 @@
         <v>3772</v>
       </c>
       <c r="B3772">
-        <v>45.15873020524938</v>
+        <v>45.15873020524937</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -30527,7 +30527,7 @@
         <v>3773</v>
       </c>
       <c r="B3773">
-        <v>44.52686904589552</v>
+        <v>44.52686904589551</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -30687,7 +30687,7 @@
         <v>3793</v>
       </c>
       <c r="B3793">
-        <v>53.81575561626686</v>
+        <v>53.81575561626685</v>
       </c>
     </row>
     <row r="3794" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>40.50124525884328</v>
+        <v>40.50124525884327</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>44.37886817137154</v>
+        <v>44.37886817137153</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>39.96111533459042</v>
+        <v>39.96111533459041</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>77.23506231569496</v>
+        <v>77.23506231569495</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30879,7 +30879,7 @@
         <v>3817</v>
       </c>
       <c r="B3817">
-        <v>21.19155650614776</v>
+        <v>21.19155650614775</v>
       </c>
     </row>
     <row r="3818" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>9.862836892485721</v>
+        <v>9.862836892485715</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>49.77987434286147</v>
+        <v>49.77987434286146</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -31063,7 +31063,7 @@
         <v>3840</v>
       </c>
       <c r="B3840">
-        <v>24.40932997513</v>
+        <v>24.40932997512999</v>
       </c>
     </row>
     <row r="3841" spans="1:2">
@@ -31071,7 +31071,7 @@
         <v>3841</v>
       </c>
       <c r="B3841">
-        <v>19.04815215779414</v>
+        <v>19.04815215779413</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>16.20773695819225</v>
+        <v>16.20773695819224</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31159,7 +31159,7 @@
         <v>3852</v>
       </c>
       <c r="B3852">
-        <v>32.0405774437289</v>
+        <v>32.04057744372889</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>64.43284013385141</v>
+        <v>64.4328401338514</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>21.70466528063604</v>
+        <v>21.70466528063603</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>36.99054728671902</v>
+        <v>36.99054728671901</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>37.8747426103603</v>
+        <v>37.87474261036029</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>61.87345075322188</v>
+        <v>61.87345075322187</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>104.4285378510039</v>
+        <v>104.4285378510038</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31855,7 +31855,7 @@
         <v>3939</v>
       </c>
       <c r="B3939">
-        <v>51.32670328491605</v>
+        <v>51.32670328491604</v>
       </c>
     </row>
     <row r="3940" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>87.56552335746872</v>
+        <v>87.56552335746871</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31999,7 +31999,7 @@
         <v>3957</v>
       </c>
       <c r="B3957">
-        <v>129.8949457554815</v>
+        <v>129.8949457554814</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>62.81626028459543</v>
+        <v>62.81626028459542</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32071,7 +32071,7 @@
         <v>3966</v>
       </c>
       <c r="B3966">
-        <v>79.74462961975206</v>
+        <v>79.74462961975205</v>
       </c>
     </row>
     <row r="3967" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>72.44042012319535</v>
+        <v>72.44042012319534</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>83.77758018277083</v>
+        <v>83.77758018277082</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>65.65084337052797</v>
+        <v>65.65084337052795</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>82.37816597316291</v>
+        <v>82.37816597316289</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32375,7 +32375,7 @@
         <v>4004</v>
       </c>
       <c r="B4004">
-        <v>98.00383454146986</v>
+        <v>98.00383454146984</v>
       </c>
     </row>
     <row r="4005" spans="1:2">
@@ -32415,7 +32415,7 @@
         <v>4009</v>
       </c>
       <c r="B4009">
-        <v>56.41939872373425</v>
+        <v>56.41939872373424</v>
       </c>
     </row>
     <row r="4010" spans="1:2">
@@ -32439,7 +32439,7 @@
         <v>4012</v>
       </c>
       <c r="B4012">
-        <v>43.0591692842795</v>
+        <v>43.05916928427949</v>
       </c>
     </row>
     <row r="4013" spans="1:2">
@@ -32607,7 +32607,7 @@
         <v>4033</v>
       </c>
       <c r="B4033">
-        <v>45.22496425998684</v>
+        <v>45.22496425998683</v>
       </c>
     </row>
     <row r="4034" spans="1:2">
@@ -32631,7 +32631,7 @@
         <v>4036</v>
       </c>
       <c r="B4036">
-        <v>38.36886038154333</v>
+        <v>38.36886038154332</v>
       </c>
     </row>
     <row r="4037" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>45.01571153838264</v>
+        <v>45.01571153838263</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32799,7 +32799,7 @@
         <v>4057</v>
       </c>
       <c r="B4057">
-        <v>64.33876433044112</v>
+        <v>64.33876433044111</v>
       </c>
     </row>
     <row r="4058" spans="1:2">
@@ -32815,7 +32815,7 @@
         <v>4059</v>
       </c>
       <c r="B4059">
-        <v>51.49433991903034</v>
+        <v>51.49433991903033</v>
       </c>
     </row>
     <row r="4060" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>49.20955810162649</v>
+        <v>49.20955810162648</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>97.10176188447024</v>
+        <v>97.10176188447022</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>79.0081420995961</v>
+        <v>79.00814209959609</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>83.07684732933156</v>
+        <v>83.07684732933154</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>99.26169543940436</v>
+        <v>99.26169543940432</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>92.07266286104156</v>
+        <v>92.07266286104154</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>49.36986795977425</v>
+        <v>49.36986795977424</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>48.16505291983746</v>
+        <v>48.16505291983745</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33543,7 +33543,7 @@
         <v>4150</v>
       </c>
       <c r="B4150">
-        <v>83.21136693607711</v>
+        <v>83.2113669360771</v>
       </c>
     </row>
     <row r="4151" spans="1:2">
@@ -33599,7 +33599,7 @@
         <v>4157</v>
       </c>
       <c r="B4157">
-        <v>38.64669172619429</v>
+        <v>38.64669172619428</v>
       </c>
     </row>
     <row r="4158" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>57.65762386207843</v>
+        <v>57.65762386207842</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>86.51838053633173</v>
+        <v>86.51838053633172</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>87.3594944172898</v>
+        <v>87.35949441728978</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33759,7 +33759,7 @@
         <v>4177</v>
       </c>
       <c r="B4177">
-        <v>53.00805183371619</v>
+        <v>53.00805183371618</v>
       </c>
     </row>
     <row r="4178" spans="1:2">
@@ -33823,7 +33823,7 @@
         <v>4185</v>
       </c>
       <c r="B4185">
-        <v>72.52658300856179</v>
+        <v>72.52658300856177</v>
       </c>
     </row>
     <row r="4186" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>71.248207137921</v>
+        <v>71.24820713792099</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>84.21337681726025</v>
+        <v>84.21337681726024</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>73.4491706382677</v>
+        <v>73.44917063826769</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>72.08082195875788</v>
+        <v>72.08082195875787</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>54.30723574810193</v>
+        <v>54.30723574810192</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>45.59950904739604</v>
+        <v>45.59950904739603</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34303,7 +34303,7 @@
         <v>4245</v>
       </c>
       <c r="B4245">
-        <v>90.78637407235691</v>
+        <v>90.78637407235688</v>
       </c>
     </row>
     <row r="4246" spans="1:2">
@@ -34327,7 +34327,7 @@
         <v>4248</v>
       </c>
       <c r="B4248">
-        <v>59.80759300169806</v>
+        <v>59.80759300169805</v>
       </c>
     </row>
     <row r="4249" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>61.13227409644734</v>
+        <v>61.13227409644733</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>50.14181707560823</v>
+        <v>50.14181707560822</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34479,7 +34479,7 @@
         <v>4267</v>
       </c>
       <c r="B4267">
-        <v>98.71189417087568</v>
+        <v>98.71189417087564</v>
       </c>
     </row>
     <row r="4268" spans="1:2">
@@ -34511,7 +34511,7 @@
         <v>4271</v>
       </c>
       <c r="B4271">
-        <v>55.49681109402833</v>
+        <v>55.49681109402832</v>
       </c>
     </row>
     <row r="4272" spans="1:2">
@@ -34519,7 +34519,7 @@
         <v>4272</v>
       </c>
       <c r="B4272">
-        <v>46.35592539818097</v>
+        <v>46.35592539818096</v>
       </c>
     </row>
     <row r="4273" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>93.70331012015328</v>
+        <v>93.70331012015326</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34719,7 +34719,7 @@
         <v>4297</v>
       </c>
       <c r="B4297">
-        <v>62.31422959536855</v>
+        <v>62.31422959536854</v>
       </c>
     </row>
     <row r="4298" spans="1:2">
@@ -34727,7 +34727,7 @@
         <v>4298</v>
       </c>
       <c r="B4298">
-        <v>54.49568042596118</v>
+        <v>54.49568042596117</v>
       </c>
     </row>
     <row r="4299" spans="1:2">
@@ -34735,7 +34735,7 @@
         <v>4299</v>
       </c>
       <c r="B4299">
-        <v>51.08697117529107</v>
+        <v>51.08697117529106</v>
       </c>
     </row>
     <row r="4300" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>3.939724665620599</v>
+        <v>3.939724665620598</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>8.203703128416111</v>
+        <v>8.203703128416109</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>64.69044957683474</v>
+        <v>64.69044957683472</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>80.03476994802679</v>
+        <v>80.03476994802678</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>75.65277177796236</v>
+        <v>75.65277177796234</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>89.32394958943679</v>
+        <v>89.32394958943678</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>76.77142393253271</v>
+        <v>76.7714239325327</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35455,7 +35455,7 @@
         <v>4389</v>
       </c>
       <c r="B4389">
-        <v>96.27061241882666</v>
+        <v>96.27061241882664</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35463,7 +35463,7 @@
         <v>4390</v>
       </c>
       <c r="B4390">
-        <v>87.4383305266897</v>
+        <v>87.43833052668968</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>45.82605296028126</v>
+        <v>45.82605296028125</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>83.34647268489999</v>
+        <v>83.34647268489998</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>81.5124341249573</v>
+        <v>81.51243412495728</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>95.25453512778778</v>
+        <v>95.25453512778776</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35671,7 +35671,7 @@
         <v>4416</v>
       </c>
       <c r="B4416">
-        <v>61.60089468726683</v>
+        <v>61.60089468726682</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
@@ -35823,7 +35823,7 @@
         <v>4435</v>
       </c>
       <c r="B4435">
-        <v>82.82187552569619</v>
+        <v>82.82187552569617</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
@@ -35871,7 +35871,7 @@
         <v>4441</v>
       </c>
       <c r="B4441">
-        <v>41.07449221046487</v>
+        <v>41.07449221046486</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>66.57548249750451</v>
+        <v>66.5754824975045</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>86.74756208856491</v>
+        <v>86.74756208856489</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>68.8705218012615</v>
+        <v>68.87052180126149</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>23.09045168694621</v>
+        <v>23.0904516869462</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>62.60730063402989</v>
+        <v>62.60730063402988</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36791,7 +36791,7 @@
         <v>4556</v>
       </c>
       <c r="B4556">
-        <v>92.90791532122638</v>
+        <v>92.90791532122635</v>
       </c>
     </row>
     <row r="4557" spans="1:2">
@@ -36807,7 +36807,7 @@
         <v>4558</v>
       </c>
       <c r="B4558">
-        <v>75.79520430275177</v>
+        <v>75.79520430275176</v>
       </c>
     </row>
     <row r="4559" spans="1:2">
@@ -36823,7 +36823,7 @@
         <v>4560</v>
       </c>
       <c r="B4560">
-        <v>56.01935675596151</v>
+        <v>56.0193567559615</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>63.84552577237408</v>
+        <v>63.84552577237407</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>104.1556887140102</v>
+        <v>104.1556887140101</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>84.12076636904327</v>
+        <v>84.12076636904325</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37199,7 +37199,7 @@
         <v>4607</v>
       </c>
       <c r="B4607">
-        <v>70.27462514748801</v>
+        <v>70.274625147488</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>42.37895140354652</v>
+        <v>42.37895140354651</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37263,7 +37263,7 @@
         <v>4615</v>
       </c>
       <c r="B4615">
-        <v>5.879503256312312</v>
+        <v>5.879503256312311</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37367,7 +37367,7 @@
         <v>4628</v>
       </c>
       <c r="B4628">
-        <v>88.85444978550132</v>
+        <v>88.8544497855013</v>
       </c>
     </row>
     <row r="4629" spans="1:2">
@@ -37415,7 +37415,7 @@
         <v>4634</v>
       </c>
       <c r="B4634">
-        <v>53.53294206395866</v>
+        <v>53.53294206395865</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>49.59904951200742</v>
+        <v>49.59904951200741</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>65.80324031063186</v>
+        <v>65.80324031063185</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>64.72620424355142</v>
+        <v>64.72620424355141</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37615,7 +37615,7 @@
         <v>4659</v>
       </c>
       <c r="B4659">
-        <v>49.15592610155147</v>
+        <v>49.15592610155146</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>59.30819995181913</v>
+        <v>59.30819995181912</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>67.35768909969164</v>
+        <v>67.35768909969163</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37775,7 +37775,7 @@
         <v>4679</v>
       </c>
       <c r="B4679">
-        <v>62.30192061174477</v>
+        <v>62.30192061174476</v>
       </c>
     </row>
     <row r="4680" spans="1:2">
@@ -37783,7 +37783,7 @@
         <v>4680</v>
       </c>
       <c r="B4680">
-        <v>57.76195715184187</v>
+        <v>57.76195715184186</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37815,7 +37815,7 @@
         <v>4684</v>
       </c>
       <c r="B4684">
-        <v>31.33427624055506</v>
+        <v>31.33427624055505</v>
       </c>
     </row>
     <row r="4685" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>99.71536940725213</v>
+        <v>99.7153694072521</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>127.444578801234</v>
+        <v>127.4445788012339</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -38159,7 +38159,7 @@
         <v>4727</v>
       </c>
       <c r="B4727">
-        <v>74.41689120792746</v>
+        <v>74.41689120792745</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38167,7 +38167,7 @@
         <v>4728</v>
       </c>
       <c r="B4728">
-        <v>64.40499838517859</v>
+        <v>64.40499838517857</v>
       </c>
     </row>
     <row r="4729" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>89.64662080300293</v>
+        <v>89.64662080300292</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>76.08065549440792</v>
+        <v>76.08065549440791</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38383,7 +38383,7 @@
         <v>4755</v>
       </c>
       <c r="B4755">
-        <v>59.2545679517441</v>
+        <v>59.25456795174409</v>
       </c>
     </row>
     <row r="4756" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>54.75563443725379</v>
+        <v>54.75563443725378</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38399,7 +38399,7 @@
         <v>4757</v>
       </c>
       <c r="B4757">
-        <v>52.16723102379679</v>
+        <v>52.16723102379678</v>
       </c>
     </row>
     <row r="4758" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>7.670167302533131</v>
+        <v>7.67016730253313</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -38543,7 +38543,7 @@
         <v>4775</v>
       </c>
       <c r="B4775">
-        <v>92.53102596550789</v>
+        <v>92.53102596550788</v>
       </c>
     </row>
     <row r="4776" spans="1:2">
@@ -38583,7 +38583,7 @@
         <v>4780</v>
       </c>
       <c r="B4780">
-        <v>62.30660974836335</v>
+        <v>62.30660974836334</v>
       </c>
     </row>
     <row r="4781" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>83.9962111776122</v>
+        <v>83.99621117761218</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>79.74199198040411</v>
+        <v>79.74199198040409</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>58.82932187464649</v>
+        <v>58.82932187464648</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>55.62195242753673</v>
+        <v>55.62195242753672</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>121.9644434493055</v>
+        <v>121.9644434493054</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>112.3288538401978</v>
+        <v>112.3288538401977</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>66.60859952487324</v>
+        <v>66.60859952487323</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>63.85871396911384</v>
+        <v>63.85871396911383</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39015,7 +39015,7 @@
         <v>4834</v>
       </c>
       <c r="B4834">
-        <v>53.9989250154302</v>
+        <v>53.99892501543019</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>88.24368974093107</v>
+        <v>88.24368974093106</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>70.32298186886713</v>
+        <v>70.32298186886712</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>122.6552118874303</v>
+        <v>122.6552118874302</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>56.66381996997781</v>
+        <v>56.6638199699778</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39727,7 +39727,7 @@
         <v>4923</v>
       </c>
       <c r="B4923">
-        <v>69.56392787873425</v>
+        <v>69.56392787873423</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>56.45486031941227</v>
+        <v>56.45486031941226</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39839,7 +39839,7 @@
         <v>4937</v>
       </c>
       <c r="B4937">
-        <v>73.49752735964682</v>
+        <v>73.49752735964681</v>
       </c>
     </row>
     <row r="4938" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>127.151214691534</v>
+        <v>127.1512146915339</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>50.45276544762792</v>
+        <v>50.45276544762791</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>54.70698464483601</v>
+        <v>54.706984644836</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>58.72469551384439</v>
+        <v>58.72469551384438</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>80.27186441830382</v>
+        <v>80.27186441830381</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>69.59440726675503</v>
+        <v>69.59440726675501</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>118.8203773465466</v>
+        <v>118.8203773465465</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>48.50091233014336</v>
+        <v>48.50091233014335</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>74.13730143704454</v>
+        <v>74.13730143704453</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>66.0456100596048</v>
+        <v>66.04561005960478</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>55.62429699584602</v>
+        <v>55.62429699584601</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>42.08089815722793</v>
+        <v>42.08089815722792</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>45.34688181206996</v>
+        <v>45.34688181206995</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>20.60327501024284</v>
+        <v>20.60327501024283</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>65.99197805952977</v>
+        <v>65.99197805952976</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>47.33185195692325</v>
+        <v>47.33185195692324</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -41055,7 +41055,7 @@
         <v>5089</v>
       </c>
       <c r="B5089">
-        <v>55.08651163990245</v>
+        <v>55.08651163990244</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>51.86419556982096</v>
+        <v>51.86419556982095</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>66.97288682592929</v>
+        <v>66.97288682592928</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41223,7 +41223,7 @@
         <v>5110</v>
       </c>
       <c r="B5110">
-        <v>89.21141031059084</v>
+        <v>89.21141031059082</v>
       </c>
     </row>
     <row r="5111" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>62.04929337641869</v>
+        <v>62.04929337641868</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>83.62928623720819</v>
+        <v>83.62928623720818</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>50.51108658432153</v>
+        <v>50.51108658432152</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>69.24067052309078</v>
+        <v>69.24067052309077</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41599,7 +41599,7 @@
         <v>5157</v>
       </c>
       <c r="B5157">
-        <v>96.30695322762068</v>
+        <v>96.30695322762064</v>
       </c>
     </row>
     <row r="5158" spans="1:2">
@@ -41623,7 +41623,7 @@
         <v>5160</v>
       </c>
       <c r="B5160">
-        <v>63.02785757450892</v>
+        <v>63.02785757450891</v>
       </c>
     </row>
     <row r="5161" spans="1:2">
@@ -41815,7 +41815,7 @@
         <v>5184</v>
       </c>
       <c r="B5184">
-        <v>79.17108959709181</v>
+        <v>79.17108959709179</v>
       </c>
     </row>
     <row r="5185" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>54.13930604294898</v>
+        <v>54.13930604294897</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>54.38900256788845</v>
+        <v>54.38900256788844</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41991,7 +41991,7 @@
         <v>5206</v>
       </c>
       <c r="B5206">
-        <v>44.41462283808822</v>
+        <v>44.41462283808821</v>
       </c>
     </row>
     <row r="5207" spans="1:2">
@@ -41999,7 +41999,7 @@
         <v>5207</v>
       </c>
       <c r="B5207">
-        <v>32.77178968518896</v>
+        <v>32.77178968518895</v>
       </c>
     </row>
     <row r="5208" spans="1:2">
@@ -42023,7 +42023,7 @@
         <v>5210</v>
       </c>
       <c r="B5210">
-        <v>17.0750806971105</v>
+        <v>17.07508069711049</v>
       </c>
     </row>
     <row r="5211" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>9.368777735510422</v>
+        <v>9.36877773551042</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>37.46473622727308</v>
+        <v>37.46473622727307</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42159,7 +42159,7 @@
         <v>5227</v>
       </c>
       <c r="B5227">
-        <v>91.01760712186071</v>
+        <v>91.01760712186068</v>
       </c>
     </row>
     <row r="5228" spans="1:2">
@@ -42183,7 +42183,7 @@
         <v>5230</v>
       </c>
       <c r="B5230">
-        <v>44.21093846621859</v>
+        <v>44.21093846621858</v>
       </c>
     </row>
     <row r="5231" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>70.95484302822099</v>
+        <v>70.95484302822098</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>23.99313979312702</v>
+        <v>23.99313979312701</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>58.27131461703529</v>
+        <v>58.27131461703528</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>51.14294774367539</v>
+        <v>51.14294774367538</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>82.48806761266091</v>
+        <v>82.4880676126609</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>87.13236436232725</v>
+        <v>87.13236436232724</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42783,7 +42783,7 @@
         <v>5305</v>
       </c>
       <c r="B5305">
-        <v>51.16873799507759</v>
+        <v>51.16873799507758</v>
       </c>
     </row>
     <row r="5306" spans="1:2">
@@ -42911,7 +42911,7 @@
         <v>5321</v>
       </c>
       <c r="B5321">
-        <v>77.82853116898418</v>
+        <v>77.82853116898417</v>
       </c>
     </row>
     <row r="5322" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>34.35408022292156</v>
+        <v>34.35408022292155</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>25.89593281873967</v>
+        <v>25.89593281873966</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>38.01746820618838</v>
+        <v>38.01746820618837</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>45.43128627120443</v>
+        <v>45.43128627120442</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>93.22912117959922</v>
+        <v>93.2291211795992</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43375,7 +43375,7 @@
         <v>5379</v>
       </c>
       <c r="B5379">
-        <v>56.36342215534993</v>
+        <v>56.36342215534992</v>
       </c>
     </row>
     <row r="5380" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>71.12775494103118</v>
+        <v>71.12775494103117</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43527,7 +43527,7 @@
         <v>5398</v>
       </c>
       <c r="B5398">
-        <v>98.94635100180474</v>
+        <v>98.94635100180471</v>
       </c>
     </row>
     <row r="5399" spans="1:2">
@@ -43551,7 +43551,7 @@
         <v>5401</v>
       </c>
       <c r="B5401">
-        <v>71.35224735664578</v>
+        <v>71.35224735664576</v>
       </c>
     </row>
     <row r="5402" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>56.48533970743305</v>
+        <v>56.48533970743304</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>75.31163708896055</v>
+        <v>75.31163708896054</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>117.421549279016</v>
+        <v>117.4215492790159</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43719,7 +43719,7 @@
         <v>5422</v>
       </c>
       <c r="B5422">
-        <v>91.30774745013544</v>
+        <v>91.30774745013542</v>
       </c>
     </row>
     <row r="5423" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>23.78300785840684</v>
+        <v>23.78300785840683</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43895,7 +43895,7 @@
         <v>5444</v>
       </c>
       <c r="B5444">
-        <v>73.469685610974</v>
+        <v>73.46968561097398</v>
       </c>
     </row>
     <row r="5445" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>19.81532421569794</v>
+        <v>19.81532421569793</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44087,7 +44087,7 @@
         <v>5468</v>
       </c>
       <c r="B5468">
-        <v>62.60231842637265</v>
+        <v>62.60231842637264</v>
       </c>
     </row>
     <row r="5469" spans="1:2">
@@ -44095,7 +44095,7 @@
         <v>5469</v>
       </c>
       <c r="B5469">
-        <v>57.74876895510211</v>
+        <v>57.7487689551021</v>
       </c>
     </row>
     <row r="5470" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>9.456611125797227</v>
+        <v>9.456611125797226</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>48.12666061377282</v>
+        <v>48.12666061377281</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>55.70342617628458</v>
+        <v>55.70342617628457</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>97.90389731728634</v>
+        <v>97.90389731728632</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>16.98827305545901</v>
+        <v>16.988273055459</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44511,7 +44511,7 @@
         <v>5521</v>
       </c>
       <c r="B5521">
-        <v>41.44669242956478</v>
+        <v>41.44669242956477</v>
       </c>
     </row>
     <row r="5522" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>71.24029421987714</v>
+        <v>71.24029421987713</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44871,7 +44871,7 @@
         <v>5566</v>
       </c>
       <c r="B5566">
-        <v>89.28233350194688</v>
+        <v>89.28233350194687</v>
       </c>
     </row>
     <row r="5567" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>59.24987881512552</v>
+        <v>59.24987881512551</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45007,7 +45007,7 @@
         <v>5583</v>
       </c>
       <c r="B5583">
-        <v>67.91804092561213</v>
+        <v>67.91804092561212</v>
       </c>
     </row>
     <row r="5584" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>34.89391707613576</v>
+        <v>34.89391707613575</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>72.84778886693462</v>
+        <v>72.84778886693461</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45423,7 +45423,7 @@
         <v>5635</v>
       </c>
       <c r="B5635">
-        <v>97.26207174261801</v>
+        <v>97.26207174261798</v>
       </c>
     </row>
     <row r="5636" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>11.01847461213514</v>
+        <v>11.01847461213513</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>48.71485418836614</v>
+        <v>48.71485418836613</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45775,7 +45775,7 @@
         <v>5679</v>
       </c>
       <c r="B5679">
-        <v>78.73060382598381</v>
+        <v>78.73060382598379</v>
       </c>
     </row>
     <row r="5680" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>87.34689236262736</v>
+        <v>87.34689236262734</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>85.44603360586987</v>
+        <v>85.44603360586986</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45855,7 +45855,7 @@
         <v>5689</v>
       </c>
       <c r="B5689">
-        <v>44.71003844505886</v>
+        <v>44.71003844505885</v>
       </c>
     </row>
     <row r="5690" spans="1:2">
@@ -45935,7 +45935,7 @@
         <v>5699</v>
       </c>
       <c r="B5699">
-        <v>85.61953166075739</v>
+        <v>85.61953166075737</v>
       </c>
     </row>
     <row r="5700" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>92.32968616194756</v>
+        <v>92.32968616194754</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>81.33688457279915</v>
+        <v>81.33688457279914</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46063,7 +46063,7 @@
         <v>5715</v>
       </c>
       <c r="B5715">
-        <v>49.94575255074379</v>
+        <v>49.94575255074378</v>
       </c>
     </row>
     <row r="5716" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>3.971874558561749</v>
+        <v>3.971874558561748</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>9.149707134111068</v>
+        <v>9.149707134111065</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>62.38866963918853</v>
+        <v>62.38866963918852</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46255,7 +46255,7 @@
         <v>5739</v>
       </c>
       <c r="B5739">
-        <v>41.23773277899924</v>
+        <v>41.23773277899923</v>
       </c>
     </row>
     <row r="5740" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>62.32712472106965</v>
+        <v>62.32712472106964</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>29.99025245725413</v>
+        <v>29.99025245725412</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>57.02312506337662</v>
+        <v>57.02312506337661</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>44.95240819403179</v>
+        <v>44.95240819403178</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>67.89488831355789</v>
+        <v>67.89488831355787</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46583,7 +46583,7 @@
         <v>5780</v>
       </c>
       <c r="B5780">
-        <v>78.84988373871897</v>
+        <v>78.84988373871896</v>
       </c>
     </row>
     <row r="5781" spans="1:2">
@@ -46607,7 +46607,7 @@
         <v>5783</v>
       </c>
       <c r="B5783">
-        <v>43.75462685902287</v>
+        <v>43.75462685902286</v>
       </c>
     </row>
     <row r="5784" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>18.60737331564748</v>
+        <v>18.60737331564747</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>49.21190266993578</v>
+        <v>49.21190266993577</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>50.73030372124021</v>
+        <v>50.7303037212402</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>62.68144760681121</v>
+        <v>62.6814476068112</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -46983,7 +46983,7 @@
         <v>5830</v>
       </c>
       <c r="B5830">
-        <v>80.73491665938874</v>
+        <v>80.73491665938873</v>
       </c>
     </row>
     <row r="5831" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>52.83748448921529</v>
+        <v>52.83748448921528</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>57.90702731597924</v>
+        <v>57.90702731597923</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>87.84364777315834</v>
+        <v>87.84364777315832</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>79.59106039549351</v>
+        <v>79.5910603954935</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47255,7 +47255,7 @@
         <v>5864</v>
       </c>
       <c r="B5864">
-        <v>49.28575657167844</v>
+        <v>49.28575657167843</v>
       </c>
     </row>
     <row r="5865" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>87.91720860386233</v>
+        <v>87.91720860386232</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47599,7 +47599,7 @@
         <v>5907</v>
       </c>
       <c r="B5907">
-        <v>8.632407443769926</v>
+        <v>8.632407443769925</v>
       </c>
     </row>
     <row r="5908" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>6.508814697629818</v>
+        <v>6.508814697629817</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47727,7 +47727,7 @@
         <v>5923</v>
       </c>
       <c r="B5923">
-        <v>67.6226253186415</v>
+        <v>67.62262531864148</v>
       </c>
     </row>
     <row r="5924" spans="1:2">
@@ -47759,7 +47759,7 @@
         <v>5927</v>
       </c>
       <c r="B5927">
-        <v>22.22677133601123</v>
+        <v>22.22677133601122</v>
       </c>
     </row>
     <row r="5928" spans="1:2">
@@ -47799,7 +47799,7 @@
         <v>5932</v>
       </c>
       <c r="B5932">
-        <v>4.185347503122673</v>
+        <v>4.185347503122672</v>
       </c>
     </row>
     <row r="5933" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>35.69400101168123</v>
+        <v>35.69400101168122</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -47903,7 +47903,7 @@
         <v>5945</v>
       </c>
       <c r="B5945">
-        <v>61.31339199834005</v>
+        <v>61.31339199834004</v>
       </c>
     </row>
     <row r="5946" spans="1:2">
@@ -47919,7 +47919,7 @@
         <v>5947</v>
       </c>
       <c r="B5947">
-        <v>76.18264421586207</v>
+        <v>76.18264421586206</v>
       </c>
     </row>
     <row r="5948" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>48.90593650557334</v>
+        <v>48.90593650557333</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>46.45762104859646</v>
+        <v>46.45762104859645</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>27.99540581839795</v>
+        <v>27.99540581839794</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>82.33303303320906</v>
+        <v>82.33303303320905</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48327,7 +48327,7 @@
         <v>5998</v>
       </c>
       <c r="B5998">
-        <v>72.99022139172403</v>
+        <v>72.99022139172402</v>
       </c>
     </row>
     <row r="5999" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>50.84254992904751</v>
+        <v>50.8425499290475</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48391,7 +48391,7 @@
         <v>6006</v>
       </c>
       <c r="B6006">
-        <v>32.80226907320974</v>
+        <v>32.80226907320973</v>
       </c>
     </row>
     <row r="6007" spans="1:2">
@@ -48407,7 +48407,7 @@
         <v>6008</v>
       </c>
       <c r="B6008">
-        <v>33.46490269162304</v>
+        <v>33.46490269162303</v>
       </c>
     </row>
     <row r="6009" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>61.39955488370649</v>
+        <v>61.39955488370648</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>53.1762746099078</v>
+        <v>53.17627460990779</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48583,7 +48583,7 @@
         <v>6030</v>
       </c>
       <c r="B6030">
-        <v>29.39795588811955</v>
+        <v>29.39795588811954</v>
       </c>
     </row>
     <row r="6031" spans="1:2">
@@ -48919,7 +48919,7 @@
         <v>6072</v>
       </c>
       <c r="B6072">
-        <v>40.36907022040701</v>
+        <v>40.369070220407</v>
       </c>
     </row>
     <row r="6073" spans="1:2">
@@ -48927,7 +48927,7 @@
         <v>6073</v>
       </c>
       <c r="B6073">
-        <v>36.22914872827685</v>
+        <v>36.22914872827684</v>
       </c>
     </row>
     <row r="6074" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>73.11800036458038</v>
+        <v>73.11800036458037</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>55.79515741138558</v>
+        <v>55.79515741138557</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>18.56930338772537</v>
+        <v>18.56930338772536</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>66.73842999500022</v>
+        <v>66.7384299950002</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>60.05992716598548</v>
+        <v>60.05992716598547</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49375,7 +49375,7 @@
         <v>6129</v>
       </c>
       <c r="B6129">
-        <v>45.96115870910414</v>
+        <v>45.96115870910413</v>
       </c>
     </row>
     <row r="6130" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>53.30610508003478</v>
+        <v>53.30610508003477</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>44.27687944991739</v>
+        <v>44.27687944991738</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>54.36819452414349</v>
+        <v>54.36819452414348</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49551,7 +49551,7 @@
         <v>6151</v>
       </c>
       <c r="B6151">
-        <v>2.419697070051599</v>
+        <v>2.419697070051598</v>
       </c>
     </row>
     <row r="6152" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>57.85896366563878</v>
+        <v>57.85896366563877</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49647,7 +49647,7 @@
         <v>6163</v>
       </c>
       <c r="B6163">
-        <v>89.5399429449302</v>
+        <v>89.53994294493019</v>
       </c>
     </row>
     <row r="6164" spans="1:2">
@@ -49679,7 +49679,7 @@
         <v>6167</v>
       </c>
       <c r="B6167">
-        <v>47.79783490839479</v>
+        <v>47.79783490839478</v>
       </c>
     </row>
     <row r="6168" spans="1:2">
@@ -49687,7 +49687,7 @@
         <v>6168</v>
       </c>
       <c r="B6168">
-        <v>40.48600556483289</v>
+        <v>40.48600556483288</v>
       </c>
     </row>
     <row r="6169" spans="1:2">
@@ -49703,7 +49703,7 @@
         <v>6170</v>
       </c>
       <c r="B6170">
-        <v>31.5432358911206</v>
+        <v>31.54323589112059</v>
       </c>
     </row>
     <row r="6171" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>64.6725722434764</v>
+        <v>64.67257224347638</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49839,7 +49839,7 @@
         <v>6187</v>
       </c>
       <c r="B6187">
-        <v>76.81714301456388</v>
+        <v>76.81714301456387</v>
       </c>
     </row>
     <row r="6188" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>23.68670471510272</v>
+        <v>23.68670471510271</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>18.43926776787133</v>
+        <v>18.43926776787132</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>47.96342004523845</v>
+        <v>47.96342004523844</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>56.71217669135693</v>
+        <v>56.71217669135692</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50215,7 +50215,7 @@
         <v>6234</v>
       </c>
       <c r="B6234">
-        <v>101.0327237260349</v>
+        <v>101.0327237260348</v>
       </c>
     </row>
     <row r="6235" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>47.79050813242826</v>
+        <v>47.79050813242825</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>36.47122540621112</v>
+        <v>36.47122540621111</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>38.56023576978919</v>
+        <v>38.56023576978918</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>50.45511001593721</v>
+        <v>50.4551100159372</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50439,7 +50439,7 @@
         <v>6262</v>
       </c>
       <c r="B6262">
-        <v>46.12908841425709</v>
+        <v>46.12908841425708</v>
       </c>
     </row>
     <row r="6263" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>66.18276730569831</v>
+        <v>66.18276730569829</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>51.00022214784731</v>
+        <v>51.0002221478473</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>60.78088192109239</v>
+        <v>60.78088192109238</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>9.836401884798464</v>
+        <v>9.836401884798462</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>5.767403584024347</v>
+        <v>5.767403584024346</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51047,7 +51047,7 @@
         <v>6338</v>
       </c>
       <c r="B6338">
-        <v>4.358640408283126</v>
+        <v>4.358640408283125</v>
       </c>
     </row>
     <row r="6339" spans="1:2">
@@ -51087,7 +51087,7 @@
         <v>6343</v>
       </c>
       <c r="B6343">
-        <v>0.898007761693388</v>
+        <v>0.8980077616933879</v>
       </c>
     </row>
     <row r="6344" spans="1:2">
@@ -51119,7 +51119,7 @@
         <v>6347</v>
       </c>
       <c r="B6347">
-        <v>24.1613039551109</v>
+        <v>24.16130395511089</v>
       </c>
     </row>
     <row r="6348" spans="1:2">
@@ -51263,7 +51263,7 @@
         <v>6365</v>
       </c>
       <c r="B6365">
-        <v>6.555266457257641</v>
+        <v>6.55526645725764</v>
       </c>
     </row>
     <row r="6366" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>6.377987785971393</v>
+        <v>6.377987785971392</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>9.380735033887806</v>
+        <v>9.380735033887804</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51391,7 +51391,7 @@
         <v>6381</v>
       </c>
       <c r="B6381">
-        <v>31.65284445957994</v>
+        <v>31.65284445957993</v>
       </c>
     </row>
     <row r="6382" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>6.261579969415108</v>
+        <v>6.261579969415107</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>6.924946265425063</v>
+        <v>6.924946265425062</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51463,7 +51463,7 @@
         <v>6390</v>
       </c>
       <c r="B6390">
-        <v>7.10518495420179</v>
+        <v>7.105184954201789</v>
       </c>
     </row>
     <row r="6391" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>2.333188360859543</v>
+        <v>2.333188360859542</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51551,7 +51551,7 @@
         <v>6401</v>
       </c>
       <c r="B6401">
-        <v>7.868986695160987</v>
+        <v>7.868986695160986</v>
       </c>
     </row>
     <row r="6402" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>37.27336083902722</v>
+        <v>37.27336083902721</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51575,7 +51575,7 @@
         <v>6404</v>
       </c>
       <c r="B6404">
-        <v>26.69704250292046</v>
+        <v>26.69704250292045</v>
       </c>
     </row>
     <row r="6405" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>5.219272820416033</v>
+        <v>5.219272820416032</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>2.150602173063138</v>
+        <v>2.150602173063137</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51711,7 +51711,7 @@
         <v>6421</v>
       </c>
       <c r="B6421">
-        <v>4.100562051637946</v>
+        <v>4.100562051637945</v>
       </c>
     </row>
     <row r="6422" spans="1:2">
@@ -51863,7 +51863,7 @@
         <v>6440</v>
       </c>
       <c r="B6440">
-        <v>20.9338884489567</v>
+        <v>20.93388844895669</v>
       </c>
     </row>
     <row r="6441" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>37.2431745220451</v>
+        <v>37.24317452204509</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>61.79227007551269</v>
+        <v>61.79227007551268</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -51951,7 +51951,7 @@
         <v>6451</v>
       </c>
       <c r="B6451">
-        <v>60.18448235741655</v>
+        <v>60.18448235741654</v>
       </c>
     </row>
     <row r="6452" spans="1:2">
@@ -51975,7 +51975,7 @@
         <v>6454</v>
       </c>
       <c r="B6454">
-        <v>31.97522260210742</v>
+        <v>31.97522260210741</v>
       </c>
     </row>
     <row r="6455" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>54.9443721861517</v>
+        <v>54.94437218615169</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52127,7 +52127,7 @@
         <v>6473</v>
       </c>
       <c r="B6473">
-        <v>50.40675329455809</v>
+        <v>50.40675329455808</v>
       </c>
     </row>
     <row r="6474" spans="1:2">
@@ -52183,7 +52183,7 @@
         <v>6480</v>
       </c>
       <c r="B6480">
-        <v>23.78813660158341</v>
+        <v>23.7881366015834</v>
       </c>
     </row>
     <row r="6481" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>12.00797035996744</v>
+        <v>12.00797035996743</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>31.3521535739134</v>
+        <v>31.35215357391339</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>32.51945552090154</v>
+        <v>32.51945552090153</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>2.174179738123443</v>
+        <v>2.174179738123442</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>8.250213502251666</v>
+        <v>8.250213502251665</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52879,7 +52879,7 @@
         <v>6567</v>
       </c>
       <c r="B6567">
-        <v>6.255865084161211</v>
+        <v>6.25586508416121</v>
       </c>
     </row>
     <row r="6568" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>4.754462153099139</v>
+        <v>4.754462153099138</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52991,7 +52991,7 @@
         <v>6581</v>
       </c>
       <c r="B6581">
-        <v>3.882194820731377</v>
+        <v>3.882194820731376</v>
       </c>
     </row>
     <row r="6582" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>43.38008207161367</v>
+        <v>43.38008207161366</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>65.27336787273215</v>
+        <v>65.27336787273214</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53119,7 +53119,7 @@
         <v>6597</v>
       </c>
       <c r="B6597">
-        <v>56.93901367528081</v>
+        <v>56.9390136752808</v>
       </c>
     </row>
     <row r="6598" spans="1:2">
@@ -53135,7 +53135,7 @@
         <v>6599</v>
       </c>
       <c r="B6599">
-        <v>39.41600320268032</v>
+        <v>39.41600320268031</v>
       </c>
     </row>
     <row r="6600" spans="1:2">
@@ -53311,7 +53311,7 @@
         <v>6621</v>
       </c>
       <c r="B6621">
-        <v>63.01496244880782</v>
+        <v>63.01496244880781</v>
       </c>
     </row>
     <row r="6622" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>1.956721027436725</v>
+        <v>1.956721027436724</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>45.50748474125638</v>
+        <v>45.50748474125637</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>50.22827303201333</v>
+        <v>50.22827303201332</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>69.45930151793215</v>
+        <v>69.45930151793213</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>81.34890048538426</v>
+        <v>81.34890048538425</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53495,7 +53495,7 @@
         <v>6644</v>
       </c>
       <c r="B6644">
-        <v>65.9462589774986</v>
+        <v>65.94625897749859</v>
       </c>
     </row>
     <row r="6645" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>8.621651736651055</v>
+        <v>8.621651736651053</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>9.236954382320549</v>
+        <v>9.236954382320548</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53719,7 +53719,7 @@
         <v>6672</v>
       </c>
       <c r="B6672">
-        <v>43.17405313143475</v>
+        <v>43.17405313143474</v>
       </c>
     </row>
     <row r="6673" spans="1:2">
@@ -53935,7 +53935,7 @@
         <v>6699</v>
       </c>
       <c r="B6699">
-        <v>2.056965976210838</v>
+        <v>2.056965976210837</v>
       </c>
     </row>
     <row r="6700" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>1.213199802352892</v>
+        <v>1.213199802352891</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>1.012929708083662</v>
+        <v>1.012929708083661</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>0.9932324035752323</v>
+        <v>0.9932324035752322</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -54151,7 +54151,7 @@
         <v>6726</v>
       </c>
       <c r="B6726">
-        <v>0.5970853499063052</v>
+        <v>0.5970853499063051</v>
       </c>
     </row>
     <row r="6727" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>23.32672555831499</v>
+        <v>23.32672555831498</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54271,7 +54271,7 @@
         <v>6741</v>
       </c>
       <c r="B6741">
-        <v>6.440030924856</v>
+        <v>6.440030924855999</v>
       </c>
     </row>
     <row r="6742" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>3.605506453131201</v>
+        <v>3.6055064531312</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>0.6177673731046364</v>
+        <v>0.6177673731046363</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>21.52211133065389</v>
+        <v>21.52211133065388</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54639,7 +54639,7 @@
         <v>6787</v>
       </c>
       <c r="B6787">
-        <v>53.27005734227943</v>
+        <v>53.27005734227942</v>
       </c>
     </row>
     <row r="6788" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>6.750246619279034</v>
+        <v>6.750246619279033</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>3.947520355248991</v>
+        <v>3.94752035524899</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54887,7 +54887,7 @@
         <v>6818</v>
       </c>
       <c r="B6818">
-        <v>9.024184808252413</v>
+        <v>9.024184808252411</v>
       </c>
     </row>
     <row r="6819" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>7.28381175226588</v>
+        <v>7.283811752265879</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>1.422121353683405</v>
+        <v>1.422121353683404</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55135,7 +55135,7 @@
         <v>6849</v>
       </c>
       <c r="B6849">
-        <v>36.93486378937337</v>
+        <v>36.93486378937336</v>
       </c>
     </row>
     <row r="6850" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>42.73825649694533</v>
+        <v>42.73825649694532</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55223,7 +55223,7 @@
         <v>6860</v>
       </c>
       <c r="B6860">
-        <v>56.48563277847171</v>
+        <v>56.4856327784717</v>
       </c>
     </row>
     <row r="6861" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>51.73641659696461</v>
+        <v>51.7364165969646</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>10.61975146403638</v>
+        <v>10.61975146403637</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>39.70145439433647</v>
+        <v>39.70145439433646</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>4.594503980197777</v>
+        <v>4.594503980197776</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>7.757150786807818</v>
+        <v>7.757150786807817</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>14.4848602432138</v>
+        <v>14.48486024321379</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>39.79816783709471</v>
+        <v>39.7981678370947</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>3.869211773718679</v>
+        <v>3.869211773718678</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>1.491555744163051</v>
+        <v>1.49155574416305</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55887,7 +55887,7 @@
         <v>6943</v>
       </c>
       <c r="B6943">
-        <v>0.8642606315915341</v>
+        <v>0.864260631591534</v>
       </c>
     </row>
     <row r="6944" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>9.962158667488049</v>
+        <v>9.962158667488048</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56375,7 +56375,7 @@
         <v>7004</v>
       </c>
       <c r="B7004">
-        <v>25.77586161420012</v>
+        <v>25.77586161420011</v>
       </c>
     </row>
     <row r="7005" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>4.583748273078905</v>
+        <v>4.583748273078904</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>44.43513781079452</v>
+        <v>44.43513781079451</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>45.18920959327016</v>
+        <v>45.18920959327015</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>35.20486544815545</v>
+        <v>35.20486544815544</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>24.3210569782852</v>
+        <v>24.32105697828519</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56687,7 +56687,7 @@
         <v>7043</v>
       </c>
       <c r="B7043">
-        <v>35.96655707763628</v>
+        <v>35.96655707763627</v>
       </c>
     </row>
     <row r="7044" spans="1:2">
@@ -56783,7 +56783,7 @@
         <v>7055</v>
       </c>
       <c r="B7055">
-        <v>29.82232275210118</v>
+        <v>29.82232275210117</v>
       </c>
     </row>
     <row r="7056" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>7.436560377616172</v>
+        <v>7.436560377616171</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>33.19234662566799</v>
+        <v>33.19234662566798</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>47.85644911612706</v>
+        <v>47.85644911612705</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56927,7 +56927,7 @@
         <v>7073</v>
       </c>
       <c r="B7073">
-        <v>52.10832374502586</v>
+        <v>52.10832374502585</v>
       </c>
     </row>
     <row r="7074" spans="1:2">
@@ -56959,7 +56959,7 @@
         <v>7077</v>
       </c>
       <c r="B7077">
-        <v>50.63359027848197</v>
+        <v>50.63359027848196</v>
       </c>
     </row>
     <row r="7078" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>9.085172891397839</v>
+        <v>9.085172891397836</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>1.233958024021275</v>
+        <v>1.233958024021274</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57151,7 +57151,7 @@
         <v>7101</v>
       </c>
       <c r="B7101">
-        <v>60.55932021586441</v>
+        <v>60.5593202158644</v>
       </c>
     </row>
     <row r="7102" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>72.25168237429745</v>
+        <v>72.25168237429743</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>44.0910724114061</v>
+        <v>44.09107241140609</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>37.8952575830666</v>
+        <v>37.89525758306659</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57423,7 +57423,7 @@
         <v>7135</v>
       </c>
       <c r="B7135">
-        <v>3.58428810993212</v>
+        <v>3.584288109932119</v>
       </c>
     </row>
     <row r="7136" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>45.2730279103273</v>
+        <v>45.27302791032729</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>7.75706286549622</v>
+        <v>7.757062865496219</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>4.031866200175726</v>
+        <v>4.031866200175725</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>18.54239946637626</v>
+        <v>18.54239946637625</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>19.13850595901344</v>
+        <v>19.13850595901343</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>9.20193239320052</v>
+        <v>9.201932393200517</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>5.440160462255088</v>
+        <v>5.440160462255087</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57823,7 +57823,7 @@
         <v>7185</v>
       </c>
       <c r="B7185">
-        <v>5.153243915405631</v>
+        <v>5.15324391540563</v>
       </c>
     </row>
     <row r="7186" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>7.460914580928931</v>
+        <v>7.46091458092893</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>5.710694338043377</v>
+        <v>5.710694338043376</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>0.6279369381461851</v>
+        <v>0.627936938146185</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57975,7 +57975,7 @@
         <v>7204</v>
       </c>
       <c r="B7204">
-        <v>0.5094512479257898</v>
+        <v>0.5094512479257897</v>
       </c>
     </row>
     <row r="7205" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>3.265075134622182</v>
+        <v>3.265075134622181</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>7.149350759728054</v>
+        <v>7.149350759728053</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>0.3820474059989297</v>
+        <v>0.3820474059989296</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>0.3077861355125315</v>
+        <v>0.3077861355125314</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>9.770167830061</v>
+        <v>9.770167830060998</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>5.905967571103431</v>
+        <v>5.90596757110343</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>0.5733671107474426</v>
+        <v>0.5733671107474425</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>0.7858494751976911</v>
+        <v>0.785849475197691</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>34.3537871518829</v>
+        <v>34.35378715188289</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>27.56778586588718</v>
+        <v>27.56778586588717</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>0.5100520435550455</v>
+        <v>0.5100520435550454</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>0.5261064750529141</v>
+        <v>0.526106475052914</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>8.45785433314323</v>
+        <v>8.457854333143228</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59071,7 +59071,7 @@
         <v>7341</v>
       </c>
       <c r="B7341">
-        <v>17.52233640921158</v>
+        <v>17.52233640921157</v>
       </c>
     </row>
     <row r="7342" spans="1:2">
@@ -59119,7 +59119,7 @@
         <v>7347</v>
       </c>
       <c r="B7347">
-        <v>0.6256656375965597</v>
+        <v>0.6256656375965596</v>
       </c>
     </row>
     <row r="7348" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>8.133659150176049</v>
+        <v>8.133659150176047</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>1.212039241039793</v>
+        <v>1.212039241039792</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>2.47946890838658</v>
+        <v>2.479468908386579</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>4.297447175410637</v>
+        <v>4.297447175410636</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.777502812016616</v>
+        <v>0.7775028120166159</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>0.7762777750750116</v>
+        <v>0.7762777750750115</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>0.7541069510002808</v>
+        <v>0.7541069510002807</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>5.732000602554057</v>
+        <v>5.732000602554056</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>7.789329986852834</v>
+        <v>7.789329986852833</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>0.7582773518804318</v>
+        <v>0.7582773518804317</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>0.6597439379721008</v>
+        <v>0.6597439379721007</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>4.50661197570324</v>
+        <v>4.506611975703239</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59775,7 +59775,7 @@
         <v>7429</v>
       </c>
       <c r="B7429">
-        <v>6.822488630309056</v>
+        <v>6.822488630309055</v>
       </c>
     </row>
     <row r="7430" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>7.136983161896546</v>
+        <v>7.136983161896545</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>0.4580583105861363</v>
+        <v>0.4580583105861362</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>4.219988499892444</v>
+        <v>4.219988499892443</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>1.859131302272884</v>
+        <v>1.859131302272883</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>0.7879625173864394</v>
+        <v>0.7879625173864393</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>0.3623852700151401</v>
+        <v>0.36238527001514</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60159,7 +60159,7 @@
         <v>7477</v>
       </c>
       <c r="B7477">
-        <v>3.727130934175659</v>
+        <v>3.727130934175658</v>
       </c>
     </row>
     <row r="7478" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>0.6800830680551982</v>
+        <v>0.6800830680551981</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>0.7148911153170062</v>
+        <v>0.7148911153170061</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60455,7 +60455,7 @@
         <v>7514</v>
       </c>
       <c r="B7514">
-        <v>8.171436007059496</v>
+        <v>8.171436007059494</v>
       </c>
     </row>
     <row r="7515" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>7.13490235752205</v>
+        <v>7.134902357522049</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>0.9888070308914459</v>
+        <v>0.9888070308914458</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60647,7 +60647,7 @@
         <v>7538</v>
       </c>
       <c r="B7538">
-        <v>0.8922635693356257</v>
+        <v>0.8922635693356256</v>
       </c>
     </row>
     <row r="7539" spans="1:2">
@@ -60663,7 +60663,7 @@
         <v>7540</v>
       </c>
       <c r="B7540">
-        <v>0.7417686602726382</v>
+        <v>0.7417686602726381</v>
       </c>
     </row>
     <row r="7541" spans="1:2">
@@ -60767,7 +60767,7 @@
         <v>7553</v>
       </c>
       <c r="B7553">
-        <v>6.996895205416423</v>
+        <v>6.996895205416422</v>
       </c>
     </row>
     <row r="7554" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>0.6444720061474583</v>
+        <v>0.6444720061474581</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>0.6939394667631067</v>
+        <v>0.6939394667631066</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>7.722802861076708</v>
+        <v>7.722802861076707</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>0.8553102420708166</v>
+        <v>0.8553102420708165</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61167,7 +61167,7 @@
         <v>7603</v>
       </c>
       <c r="B7603">
-        <v>2.487680758889871</v>
+        <v>2.48768075888987</v>
       </c>
     </row>
     <row r="7604" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>0.4259758239838788</v>
+        <v>0.4259758239838787</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>0.1131116465844622</v>
+        <v>0.1131116465844621</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>0.9533102666887838</v>
+        <v>0.9533102666887836</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>0.6512741849547879</v>
+        <v>0.6512741849547878</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>0.4748366275494983</v>
+        <v>0.4748366275494982</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>1.678130628795637</v>
+        <v>1.678130628795636</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>6.951117509177521</v>
+        <v>6.95111750917752</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.7216874327035628</v>
+        <v>0.7216874327035627</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>3.980637382617723</v>
+        <v>3.980637382617722</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>4.631460238172973</v>
+        <v>4.631460238172972</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>0.4116886108491382</v>
+        <v>0.4116886108491381</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>0.5498950512610554</v>
+        <v>0.5498950512610553</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62527,7 +62527,7 @@
         <v>7773</v>
       </c>
       <c r="B7773">
-        <v>0.5150870039992475</v>
+        <v>0.5150870039992473</v>
       </c>
     </row>
     <row r="7774" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>0.1968810207781505</v>
+        <v>0.1968810207781504</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -63031,7 +63031,7 @@
         <v>7836</v>
       </c>
       <c r="B7836">
-        <v>1.723506817711573</v>
+        <v>1.723506817711572</v>
       </c>
     </row>
     <row r="7837" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>0.711177905257167</v>
+        <v>0.7111779052571668</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>4.277049431119807</v>
+        <v>4.277049431119806</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>2.234010190666157</v>
+        <v>2.234010190666156</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>0.9694789958917304</v>
+        <v>0.96947899589173</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>0.7483070751451728</v>
+        <v>0.7483070751451727</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63863,7 +63863,7 @@
         <v>7940</v>
       </c>
       <c r="B7940">
-        <v>1.393192311457144</v>
+        <v>1.393192311457143</v>
       </c>
     </row>
     <row r="7941" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>0.3746678772454371</v>
+        <v>0.374667877245437</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>4.882123897540021</v>
+        <v>4.88212389754002</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64039,7 +64039,7 @@
         <v>7962</v>
       </c>
       <c r="B7962">
-        <v>0.3531066409311219</v>
+        <v>0.3531066409311218</v>
       </c>
     </row>
     <row r="7963" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>0.7296179350097388</v>
+        <v>0.7296179350097387</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>0.8465913786706416</v>
+        <v>0.8465913786706415</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64119,7 +64119,7 @@
         <v>7972</v>
       </c>
       <c r="B7972">
-        <v>0.3102684472099931</v>
+        <v>0.310268447209993</v>
       </c>
     </row>
     <row r="7973" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>0.7941785541164466</v>
+        <v>0.7941785541164464</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>0.6391996581619406</v>
+        <v>0.6391996581619405</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>0.1283003462341251</v>
+        <v>0.128300346234125</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>0.4443250017144656</v>
+        <v>0.4443250017144655</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>0.6917766024977859</v>
+        <v>0.6917766024977858</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>0.5171062634556242</v>
+        <v>0.517106263455624</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>0.71945716209935</v>
+        <v>0.7194571620993498</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>5.225192855396991</v>
+        <v>5.22519285539699</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64855,7 +64855,7 @@
         <v>8064</v>
       </c>
       <c r="B8064">
-        <v>0.8584666171571993</v>
+        <v>0.8584666171571992</v>
       </c>
     </row>
     <row r="8065" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>0.6952729399890157</v>
+        <v>0.6952729399890156</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>5.92985286075433</v>
+        <v>5.929852860754329</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>8.398595369125905</v>
+        <v>8.398595369125903</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>9.020843798411674</v>
+        <v>9.020843798411672</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65415,7 +65415,7 @@
         <v>8134</v>
       </c>
       <c r="B8134">
-        <v>29.4999446095737</v>
+        <v>29.49994460957369</v>
       </c>
     </row>
     <row r="8135" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>26.33870454394923</v>
+        <v>26.33870454394922</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>3.442588262739359</v>
+        <v>3.442588262739358</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>6.511774715120297</v>
+        <v>6.511774715120296</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65551,7 +65551,7 @@
         <v>8151</v>
       </c>
       <c r="B8151">
-        <v>34.39481709729549</v>
+        <v>34.39481709729548</v>
       </c>
     </row>
     <row r="8152" spans="1:2">
@@ -65791,7 +65791,7 @@
         <v>8181</v>
       </c>
       <c r="B8181">
-        <v>44.46796176712459</v>
+        <v>44.46796176712458</v>
       </c>
     </row>
     <row r="8182" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>2.689439654035501</v>
+        <v>2.6894396540355</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>0.4447147861958852</v>
+        <v>0.4447147861958851</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>0.3684723554881362</v>
+        <v>0.3684723554881361</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>3.284622972900894</v>
+        <v>3.284622972900893</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>0.6251029412023299</v>
+        <v>0.6251029412023298</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>6.662032236641969</v>
+        <v>6.662032236641968</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>6.001420808395431</v>
+        <v>6.00142080839543</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>0.7589983066355387</v>
+        <v>0.7589983066355386</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>0.3970028211018182</v>
+        <v>0.3970028211018181</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>0.3121528939885855</v>
+        <v>0.3121528939885854</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>0.2217774055124318</v>
+        <v>0.2217774055124317</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>0.7206177234124489</v>
+        <v>0.7206177234124488</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66343,7 +66343,7 @@
         <v>8250</v>
       </c>
       <c r="B8250">
-        <v>0.3718866330885409</v>
+        <v>0.3718866330885408</v>
       </c>
     </row>
     <row r="8251" spans="1:2">
@@ -66431,7 +66431,7 @@
         <v>8261</v>
       </c>
       <c r="B8261">
-        <v>0.4612322699348386</v>
+        <v>0.4612322699348385</v>
       </c>
     </row>
     <row r="8262" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>5.41513219555341</v>
+        <v>5.415132195553409</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>0.802765535549224</v>
+        <v>0.8027655355492239</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>0.667287586507244</v>
+        <v>0.6672875865072438</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>0.3934097701678301</v>
+        <v>0.39340977016783</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>0.2919626439931281</v>
+        <v>0.291962643993128</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>4.184409675798956</v>
+        <v>4.184409675798955</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>0.4435131949373737</v>
+        <v>0.4435131949373736</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>0.2437457174994476</v>
+        <v>0.2437457174994475</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>0.3111007689597913</v>
+        <v>0.3111007689597912</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>0.3545778575452018</v>
+        <v>0.3545778575452017</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>0.3746092630377048</v>
+        <v>0.3746092630377047</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>0.2751737764723743</v>
+        <v>0.2751737764723742</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67783,7 +67783,7 @@
         <v>8430</v>
       </c>
       <c r="B8430">
-        <v>0.3062768196634255</v>
+        <v>0.3062768196634254</v>
       </c>
     </row>
     <row r="8431" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>0.1534596156900856</v>
+        <v>0.1534596156900855</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>0.3687038816086787</v>
+        <v>0.3687038816086786</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>0.9651884358857282</v>
+        <v>0.965188435885728</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>0.6848396110126719</v>
+        <v>0.6848396110126718</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>0.460402878895427</v>
+        <v>0.4604028788954269</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>3.923254073247832</v>
+        <v>3.923254073247831</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68687,7 +68687,7 @@
         <v>8543</v>
       </c>
       <c r="B8543">
-        <v>0.3397308787266181</v>
+        <v>0.339730878726618</v>
       </c>
     </row>
     <row r="8544" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>0.2938125083891585</v>
+        <v>0.2938125083891584</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>0.078095225814166</v>
+        <v>0.07809522581416591</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>4.332469164530668</v>
+        <v>4.332469164530667</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>0.077747350491275</v>
+        <v>0.0777473504912749</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69631,7 +69631,7 @@
         <v>8661</v>
       </c>
       <c r="B8661">
-        <v>0.3704447235783271</v>
+        <v>0.370444723578327</v>
       </c>
     </row>
     <row r="8662" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>0.470903614210663</v>
+        <v>0.4709036142106629</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>0.3818569098237999</v>
+        <v>0.3818569098237998</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>0.1799722872025842</v>
+        <v>0.1799722872025841</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
